--- a/Filtered_By_Region/NCR/NCR_QRF.xlsx
+++ b/Filtered_By_Region/NCR/NCR_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -729,29 +735,23 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>43620</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>43627</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>43655</v>
       </c>
-      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
           <t>MMEEN Construction</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -788,7 +788,6 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -799,9 +798,6 @@
           <t>TORNADO</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -873,16 +869,6 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
           <t>Post Qualification</t>
@@ -924,16 +910,11 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1005,27 +986,24 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-001</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>44413</v>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1033,7 +1011,6 @@
           <t>GMO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1070,16 +1047,11 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1151,27 +1123,24 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-002</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1179,7 +1148,6 @@
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1216,16 +1184,11 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1297,27 +1260,24 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-003</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1325,7 +1285,6 @@
           <t>DREAMWORX BUILDER &amp; TRADING INCORPORATED</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1362,16 +1321,11 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1443,21 +1397,11 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>Sherf Builders Corporation</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1494,16 +1438,11 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1512,6 +1451,79 @@
       <c r="AT7" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/NCR/NCR_QRF.xlsx
+++ b/Filtered_By_Region/NCR/NCR_QRF.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,659 +447,689 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="32" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="42" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>QRF 2019</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Marikina City</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>305402</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Malanday NHS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>CITY OF MARIKINA</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="G2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>13562619.87</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="n">
+      <c r="L2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="n">
         <v>13517578.74</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr"/>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="5" t="n">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="6" t="n">
         <v>43620</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>43627</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>43647</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>43655</v>
       </c>
-      <c r="X2" s="4" t="inlineStr"/>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr"/>
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>MMEEN Construction</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="n"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Malabon City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>136839</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Tonsuya Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>CITY OF MALABON</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>FIRE INCIDENT</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>2263841.54</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>2252902.36</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="inlineStr"/>
-      <c r="Q3" s="4" t="inlineStr"/>
-      <c r="R3" s="4" t="inlineStr"/>
-      <c r="S3" s="4" t="inlineStr"/>
-      <c r="T3" s="4" t="inlineStr"/>
-      <c r="U3" s="4" t="inlineStr"/>
-      <c r="V3" s="4" t="inlineStr"/>
-      <c r="W3" s="4" t="inlineStr"/>
-      <c r="X3" s="4" t="inlineStr"/>
-      <c r="Y3" s="4" t="inlineStr"/>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+      <c r="U3" s="5" t="inlineStr"/>
+      <c r="V3" s="5" t="inlineStr"/>
+      <c r="W3" s="5" t="inlineStr"/>
+      <c r="X3" s="5" t="inlineStr"/>
+      <c r="Y3" s="5" t="inlineStr"/>
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>Post Qualification</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="n"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Marikina City</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>136675</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Malanday ES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>CITY OF MARIKINA</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>26196823.18</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="n">
         <v>26027440.46</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="inlineStr"/>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-001</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="5" t="n">
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="6" t="n">
         <v>44364</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="6" t="n">
         <v>44370</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="6" t="n">
         <v>44413</v>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>GMO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr"/>
-      <c r="AA4" s="4" t="n"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Marikina City</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>319906</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Sto. Nino National High School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>CITY OF MARIKINA</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>12499062.18</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="n">
         <v>12394039.4</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-002</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="5" t="n">
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="6" t="n">
         <v>44364</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>44370</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="6" t="n">
         <v>44412</v>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr"/>
-      <c r="AA5" s="4" t="n"/>
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Marikina City</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>319901</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Nangka HS</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CITY OF MARIKINA</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>10415199.95</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>10311102.1</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-003</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="5" t="n">
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="6" t="n">
         <v>44364</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>44370</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="6" t="n">
         <v>44412</v>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>DREAMWORX BUILDER &amp; TRADING INCORPORATED</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="n"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>305294</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Jose P. Laurel High School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>TONDO</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>1400000</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="n">
         <v>1366297.64</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="inlineStr"/>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr"/>
-      <c r="W7" s="4" t="inlineStr"/>
-      <c r="X7" s="4" t="inlineStr"/>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="5" t="inlineStr"/>
+      <c r="V7" s="5" t="inlineStr"/>
+      <c r="W7" s="5" t="inlineStr"/>
+      <c r="X7" s="5" t="inlineStr"/>
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>Sherf Builders Corporation</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="4" t="n"/>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/NCR/NCR_QRF.xlsx
+++ b/Filtered_By_Region/NCR/NCR_QRF.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/NCR/NCR_QRF.xlsx
+++ b/Filtered_By_Region/NCR/NCR_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,318 +453,329 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="32" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="32" customWidth="1" min="18" max="18"/>
-    <col width="13" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="42" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="32" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="42" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>QRF 2019</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Marikina City</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>305402</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Malanday NHS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>CITY OF MARIKINA</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>13562619.87</v>
       </c>
-      <c r="L2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <v>13517578.74</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" s="5" t="inlineStr"/>
       <c r="R2" s="5" t="inlineStr"/>
       <c r="S2" s="5" t="inlineStr"/>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="5" t="inlineStr"/>
+      <c r="U2" s="6" t="n">
         <v>43620</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="V2" s="6" t="n">
         <v>43627</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>43647</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>43655</v>
       </c>
-      <c r="X2" s="5" t="inlineStr"/>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr"/>
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>MMEEN Construction</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr"/>
-      <c r="AA2" s="7" t="n"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>1733</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Malabon City</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>136839</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Tonsuya Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>CITY OF MALABON</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>FIRE INCIDENT</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>2263841.54</v>
       </c>
-      <c r="L3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>2252902.36</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" s="5" t="inlineStr"/>
       <c r="R3" s="5" t="inlineStr"/>
       <c r="S3" s="5" t="inlineStr"/>
@@ -774,347 +785,359 @@
       <c r="W3" s="5" t="inlineStr"/>
       <c r="X3" s="5" t="inlineStr"/>
       <c r="Y3" s="5" t="inlineStr"/>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>Post Qualification</t>
         </is>
       </c>
-      <c r="AA3" s="7" t="n"/>
+      <c r="AB3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>1734</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Marikina City</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>136675</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Malanday ES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>CITY OF MARIKINA</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>26196823.18</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>26027440.46</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-001</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="6" t="n">
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="6" t="n">
         <v>44364</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="V4" s="6" t="n">
         <v>44370</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="W4" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="Y4" s="6" t="n">
         <v>44413</v>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>GMO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr"/>
-      <c r="AA4" s="7" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>1735</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Marikina City</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>319906</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Sto. Nino National High School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>CITY OF MARIKINA</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>12499062.18</v>
       </c>
-      <c r="L5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>12394039.4</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-002</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr"/>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="5" t="inlineStr"/>
+      <c r="U5" s="6" t="n">
         <v>44364</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="V5" s="6" t="n">
         <v>44370</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="W5" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="X5" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="Y5" s="6" t="n">
         <v>44412</v>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr"/>
-      <c r="AA5" s="7" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>1736</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Marikina City</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>319901</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Nangka HS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>CITY OF MARIKINA</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>10415199.95</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>10311102.1</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>QRF-2021-NCR-MARIKINA CITY-003</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr"/>
-      <c r="T6" s="6" t="n">
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="6" t="n">
         <v>44364</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="V6" s="6" t="n">
         <v>44370</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="W6" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="Y6" s="6" t="n">
         <v>44412</v>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>DREAMWORX BUILDER &amp; TRADING INCORPORATED</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr"/>
-      <c r="AA6" s="7" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>305294</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Jose P. Laurel High School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>TONDO</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>1400000</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>1366297.64</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
       <c r="R7" s="5" t="inlineStr"/>
       <c r="S7" s="5" t="inlineStr"/>
@@ -1123,17 +1146,18 @@
       <c r="V7" s="5" t="inlineStr"/>
       <c r="W7" s="5" t="inlineStr"/>
       <c r="X7" s="5" t="inlineStr"/>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr"/>
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Sherf Builders Corporation</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr"/>
-      <c r="AA7" s="7" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
